--- a/صيدليات دكتور مصطفي طلعت_2026-01-09_09-32.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-09_09-32.xlsx
@@ -47,16 +47,43 @@
     <t>1:1</t>
   </si>
   <si>
+    <t>CONGESTAL SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>DOLPHIN 25 MG 10 SUPP.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>FEROGLOBIN 30 CAPS</t>
   </si>
   <si>
     <t>0:1</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>LEZBERG TRIO 20/5/12.5 TAB</t>
+  </si>
+  <si>
+    <t>RESTOHERB SYRUP</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>-1:0</t>
   </si>
   <si>
     <t>Friday, 9 January, 2026 9:32 AM</t>
@@ -701,17 +728,17 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c t="s" r="H6" s="8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="9">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="M6" s="9"/>
       <c t="s" r="N6" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1">
@@ -719,7 +746,7 @@
         <v>4</v>
       </c>
       <c t="s" r="B7" s="7">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -733,7 +760,7 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="9">
-        <v>38</v>
+        <v>27.5</v>
       </c>
       <c r="M7" s="9"/>
       <c t="s" r="N7" s="7">
@@ -741,37 +768,167 @@
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1">
-      <c r="K8" s="10">
-        <v>233.33000000000001</v>
-      </c>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-    </row>
-    <row r="9" ht="17.25" customHeight="1">
-      <c t="s" r="A9" s="11">
+      <c r="A8" s="6">
+        <v>5</v>
+      </c>
+      <c t="s" r="B8" s="7">
+        <v>15</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c t="s" r="H8" s="8">
         <v>16</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c t="s" r="F9" s="12">
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="9">
+        <v>19</v>
+      </c>
+      <c r="M8" s="9"/>
+      <c t="s" r="N8" s="7">
         <v>17</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="13"/>
-      <c t="s" r="I9" s="14">
+    </row>
+    <row r="9" ht="24.75" customHeight="1">
+      <c r="A9" s="6">
+        <v>6</v>
+      </c>
+      <c t="s" r="B9" s="7">
         <v>18</v>
       </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c t="s" r="H9" s="8">
+        <v>19</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="9">
+        <v>90</v>
+      </c>
+      <c r="M9" s="9"/>
+      <c t="s" r="N9" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" ht="25.5" customHeight="1">
+      <c r="A10" s="6">
+        <v>7</v>
+      </c>
+      <c t="s" r="B10" s="7">
+        <v>20</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c t="s" r="H10" s="8">
+        <v>17</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="9">
+        <v>38</v>
+      </c>
+      <c r="M10" s="9"/>
+      <c t="s" r="N10" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" ht="24.75" customHeight="1">
+      <c r="A11" s="6">
+        <v>8</v>
+      </c>
+      <c t="s" r="B11" s="7">
+        <v>21</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c t="s" r="H11" s="8">
+        <v>22</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="9">
+        <v>45</v>
+      </c>
+      <c r="M11" s="9"/>
+      <c t="s" r="N11" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="6">
+        <v>9</v>
+      </c>
+      <c t="s" r="B12" s="7">
+        <v>23</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c t="s" r="H12" s="8">
+        <v>24</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="9">
+        <v>2</v>
+      </c>
+      <c r="M12" s="9"/>
+      <c t="s" r="N12" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" ht="25.5" customHeight="1">
+      <c r="K13" s="10">
+        <v>370.82999999999998</v>
+      </c>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+    </row>
+    <row r="14" ht="17.25" customHeight="1">
+      <c t="s" r="A14" s="11">
+        <v>25</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c t="s" r="F14" s="12">
+        <v>26</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="13"/>
+      <c t="s" r="I14" s="14">
+        <v>27</v>
+      </c>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="38">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -791,10 +948,25 @@
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="I9:N9"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="I14:N14"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
